--- a/xls2rdf-lib/src/test/resources/suite/_46_manchester/input.xlsx
+++ b/xls2rdf-lib/src/test/resources/suite/_46_manchester/input.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Graph URI</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t xml:space="preserve">ex:Pizza and ex:hasTopping some ex:MeatTopping</t>
+  </si>
+  <si>
+    <t>ex:TEST_DECIMAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex:literal_qtt_mg some xsd:decimal[&gt;= 2.5 , &lt;= 3]</t>
   </si>
 </sst>
 </file>
@@ -1163,8 +1169,12 @@
       <c r="C6" s="7"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" ht="14.25"/>
     <row r="9" ht="14.25"/>

--- a/xls2rdf-lib/src/test/resources/suite/_46_manchester/input.xlsx
+++ b/xls2rdf-lib/src/test/resources/suite/_46_manchester/input.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Graph URI</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t xml:space="preserve">ex:literal_qtt_mg some xsd:decimal[&gt;= 2.5 , &lt;= 3]</t>
+  </si>
+  <si>
+    <t>ex:TEST_DECIMAL_COMPLEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex:substance some ex:GS_IAM_10012 and ((ex:literal_qtt_jour_mg some xsd:decimal[&gt;= 375 , &lt; 3000]) or (ex:literal_qtt_prise_mg some xsd:decimal[&gt;= 10 , &lt; 20]))</t>
   </si>
 </sst>
 </file>
@@ -541,7 +547,7 @@
     <xf fontId="16" fillId="0" borderId="9" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0"/>
     <xf fontId="17" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="16" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="34" applyFont="1" applyProtection="1"/>
@@ -559,8 +565,11 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1172,11 +1181,18 @@
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="14.25"/>
+    <row r="8" ht="57">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="9" ht="14.25"/>
     <row r="10" ht="14.25"/>
     <row r="11" ht="14.25"/>
@@ -1229,8 +1245,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21f64c02-1f20-443d-801b-ae17df5c4a0a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bf3f9575-65b8-4549-b389-33a18b8943d7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1471,20 +1493,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21f64c02-1f20-443d-801b-ae17df5c4a0a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bf3f9575-65b8-4549-b389-33a18b8943d7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1F32C29-5119-4529-9D4B-832730A3AB27}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEA1FA1F-0E69-410D-8DC2-248841F3EE28}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="21f64c02-1f20-443d-801b-ae17df5c4a0a"/>
+    <ds:schemaRef ds:uri="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1509,12 +1528,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEA1FA1F-0E69-410D-8DC2-248841F3EE28}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1F32C29-5119-4529-9D4B-832730A3AB27}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="21f64c02-1f20-443d-801b-ae17df5c4a0a"/>
-    <ds:schemaRef ds:uri="bf3f9575-65b8-4549-b389-33a18b8943d7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>